--- a/Data/Dialogs/dlgVehicleInsuranceMain.xlsx
+++ b/Data/Dialogs/dlgVehicleInsuranceMain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Dialogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308689BD-70F2-439E-8D3D-0A96CE504BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23B7265-D2A7-4F66-AA2E-C59605CD7F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="996" yWindow="2100" windowWidth="40248" windowHeight="9744" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="2640" yWindow="2580" windowWidth="35280" windowHeight="13512" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>Action</t>
   </si>
@@ -57,27 +57,15 @@
     <t>VIA_Pixel9Pro_API35</t>
   </si>
   <si>
-    <t>rotCamper</t>
-  </si>
-  <si>
     <t>butCamperGetQuote</t>
   </si>
   <si>
-    <t>rotTruck</t>
-  </si>
-  <si>
     <t>butTruckGetQuote</t>
   </si>
   <si>
-    <t>rotMotorcycle</t>
-  </si>
-  <si>
     <t>butMotorcycleGetQuote</t>
   </si>
   <si>
-    <t>rotAutomobile</t>
-  </si>
-  <si>
     <t>butAutomobileGetQuote</t>
   </si>
   <si>
@@ -94,6 +82,42 @@
   </si>
   <si>
     <t>picMotorcycle</t>
+  </si>
+  <si>
+    <t>id="get_motorcycle"</t>
+  </si>
+  <si>
+    <t>id="get_camper"</t>
+  </si>
+  <si>
+    <t>id="get_automobile"</t>
+  </si>
+  <si>
+    <t>id="get_truck"</t>
+  </si>
+  <si>
+    <t>npaInsurances</t>
+  </si>
+  <si>
+    <t>//ol[@class="flex-control-nav flex-control-paging"]</t>
+  </si>
+  <si>
+    <t>id="read_more"</t>
+  </si>
+  <si>
+    <t>id="offer_automobile"</t>
+  </si>
+  <si>
+    <t>id="offer_camper"</t>
+  </si>
+  <si>
+    <t>id="offer_truck"</t>
+  </si>
+  <si>
+    <t>id="offer_motorcycle"</t>
+  </si>
+  <si>
+    <t>&lt;ENABLED&gt;</t>
   </si>
 </sst>
 </file>
@@ -117,7 +141,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -127,6 +151,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -143,10 +173,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -174,8 +205,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2018348</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>166688</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>31169</xdr:rowOff>
     </xdr:to>
@@ -510,50 +541,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82737E07-8287-4E6B-9130-6C87B574EFB8}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="47" customWidth="1"/>
     <col min="2" max="2" width="12.21875" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" customWidth="1"/>
-    <col min="4" max="4" width="30.88671875" customWidth="1"/>
-    <col min="5" max="5" width="19.77734375" customWidth="1"/>
-    <col min="6" max="6" width="32.44140625" customWidth="1"/>
-    <col min="7" max="7" width="19.77734375" customWidth="1"/>
-    <col min="8" max="8" width="32.44140625" customWidth="1"/>
-    <col min="9" max="9" width="19.77734375" customWidth="1"/>
-    <col min="10" max="10" width="32.44140625" customWidth="1"/>
-    <col min="11" max="15" width="20.5546875" customWidth="1"/>
+    <col min="3" max="3" width="22.77734375" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="7" max="7" width="37.5546875" customWidth="1"/>
+    <col min="8" max="12" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P1" t="s">
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P2" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -564,53 +632,56 @@
         <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="M3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="P4" t="s">
+      <c r="I4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Data/Dialogs/dlgVehicleInsuranceMain.xlsx
+++ b/Data/Dialogs/dlgVehicleInsuranceMain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Dialogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23B7265-D2A7-4F66-AA2E-C59605CD7F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30AD4746-0249-4FE1-B237-0F179F1A6D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2580" windowWidth="35280" windowHeight="13512" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="2796" yWindow="7224" windowWidth="37500" windowHeight="7116" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -544,7 +544,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -555,7 +555,7 @@
     <col min="4" max="4" width="26.6640625" customWidth="1"/>
     <col min="5" max="5" width="22.33203125" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
-    <col min="7" max="7" width="37.5546875" customWidth="1"/>
+    <col min="7" max="7" width="46.6640625" customWidth="1"/>
     <col min="8" max="12" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
